--- a/tests/fixtures/orderforms/1605.11.metagenome.xlsx
+++ b/tests/fixtures/orderforms/1605.11.metagenome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent.janvid/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D1B264-F3C4-CE40-9280-E96C5E47C4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFF6973-FB8D-F449-BA82-37F8877A3FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40940" yWindow="-2980" windowWidth="28800" windowHeight="15660" tabRatio="283" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3629,7 +3629,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3673,7 +3673,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3972,8 +3972,8 @@
   </sheetPr>
   <dimension ref="A1:V145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4446,7 +4446,7 @@
         <v>424</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="F16" s="59" t="s">
         <v>32</v>
@@ -4503,7 +4503,7 @@
         <v>424</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="F17" s="59" t="s">
         <v>32</v>
@@ -4595,7 +4595,7 @@
         <v>424</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>411</v>
+        <v>270</v>
       </c>
       <c r="F19" s="59" t="s">
         <v>32</v>
@@ -4640,7 +4640,7 @@
         <v>424</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="F20" s="59" t="s">
         <v>32</v>
@@ -4685,7 +4685,7 @@
         <v>424</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F21" s="59" t="s">
         <v>32</v>
@@ -4730,7 +4730,7 @@
         <v>424</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>32</v>
@@ -4776,7 +4776,7 @@
         <v>424</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F23" s="59" t="s">
         <v>32</v>
@@ -4822,7 +4822,7 @@
         <v>424</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>32</v>
@@ -4869,7 +4869,7 @@
         <v>424</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F25" s="59" t="s">
         <v>32</v>
@@ -4916,7 +4916,7 @@
         <v>424</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c r="F26" s="59" t="s">
         <v>32</v>
@@ -4963,7 +4963,7 @@
         <v>424</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F27" s="59" t="s">
         <v>32</v>
@@ -5057,7 +5057,7 @@
         <v>424</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="F29" s="59" t="s">
         <v>32</v>
@@ -5104,7 +5104,7 @@
         <v>424</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F30" s="59" t="s">
         <v>32</v>
@@ -5151,7 +5151,7 @@
         <v>424</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="F31" s="59" t="s">
         <v>32</v>
@@ -5198,7 +5198,7 @@
         <v>424</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="F32" s="59" t="s">
         <v>32</v>
@@ -5245,7 +5245,7 @@
         <v>424</v>
       </c>
       <c r="E33" s="60" t="s">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="F33" s="59" t="s">
         <v>32</v>
@@ -5292,7 +5292,7 @@
         <v>424</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F34" s="59" t="s">
         <v>32</v>
@@ -5339,7 +5339,7 @@
         <v>424</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F35" s="59" t="s">
         <v>32</v>
